--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\23127157-23127396-23127494\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3413C6B-2450-4369-9BC9-899B078DCEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAFC0C8-1D12-47A2-831E-96D64E27FD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8CE66FDF-E979-4E9F-A8C3-831D61C41828}"/>
   </bookViews>
@@ -333,36 +333,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -372,6 +354,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -748,7 +748,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,24 +765,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -801,10 +801,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1">
         <v>23127157</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="E3" s="1">
         <v>23127157</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -823,10 +823,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1">
         <v>23127157</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="E4" s="1">
         <v>23127157</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -845,10 +845,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1">
         <v>23127157</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="E5" s="1">
         <v>23127157</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -867,10 +867,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
       <c r="C6" s="1">
         <v>23127396</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="E6" s="1">
         <v>23127396</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -889,10 +889,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1">
         <v>23127396</v>
       </c>
@@ -902,15 +902,15 @@
       <c r="E7" s="1">
         <v>23127396</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="1">
         <v>23127494</v>
       </c>
@@ -920,17 +920,17 @@
       <c r="E8" s="1">
         <v>23127494</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1">
         <v>23127494</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="E9" s="1">
         <v>23127494</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -949,10 +949,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1">
         <v>23127396</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="E10" s="1">
         <v>23127396</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -971,10 +971,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18"/>
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14"/>
       <c r="C11" s="1">
         <v>23127396</v>
       </c>
@@ -984,7 +984,7 @@
       <c r="E11" s="1">
         <v>23127396</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -993,10 +993,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1">
         <v>23127494</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="E12" s="1">
         <v>23127494</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1015,10 +1015,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1">
         <v>23127494</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="E13" s="1">
         <v>23127494</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1037,22 +1037,22 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="8"/>
       <c r="J15"/>
     </row>
@@ -1069,14 +1069,14 @@
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>23127494</v>
+        <v>23127157</v>
       </c>
       <c r="D17" s="1">
         <v>23127396</v>
@@ -1085,12 +1085,12 @@
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>23127494</v>
+        <v>23127157</v>
       </c>
       <c r="D18" s="1">
         <v>23127396</v>
@@ -1099,12 +1099,12 @@
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>23127494</v>
+        <v>23127157</v>
       </c>
       <c r="D19" s="1">
         <v>23127396</v>
@@ -1113,12 +1113,12 @@
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>23127494</v>
+        <v>23127157</v>
       </c>
       <c r="D20" s="1">
         <v>23127396</v>
@@ -1127,14 +1127,14 @@
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>23127494</v>
+        <v>23127157</v>
       </c>
       <c r="D21" s="1">
         <v>23127396</v>
@@ -1143,12 +1143,12 @@
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>23127494</v>
+        <v>23127157</v>
       </c>
       <c r="D22" s="1">
         <v>23127396</v>
@@ -1157,12 +1157,12 @@
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
-        <v>23127494</v>
+        <v>23127157</v>
       </c>
       <c r="D23" s="1">
         <v>23127396</v>
@@ -1171,12 +1171,12 @@
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>23127494</v>
+        <v>23127157</v>
       </c>
       <c r="D24" s="1">
         <v>23127396</v>
@@ -1228,6 +1228,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F13"/>
@@ -1244,11 +1249,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1273,24 +1273,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1309,10 +1309,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1331,10 +1331,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1353,10 +1353,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1375,10 +1375,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1397,10 +1397,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -1410,15 +1410,15 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -1428,17 +1428,17 @@
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1457,10 +1457,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1479,10 +1479,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18"/>
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1501,10 +1501,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1523,10 +1523,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1545,22 +1545,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1587,7 +1587,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B28" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A28)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A28)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A28)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A28)</f>
-        <v>95</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1717,11 +1717,16 @@
       </c>
       <c r="B30" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A30)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A30)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A30)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A30)</f>
-        <v>195</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F13"/>
@@ -1738,11 +1743,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1865,24 +1865,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1901,10 +1901,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1923,10 +1923,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1945,10 +1945,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1967,10 +1967,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1989,10 +1989,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -2002,15 +2002,15 @@
       <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -2020,17 +2020,17 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2049,10 +2049,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2071,10 +2071,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18"/>
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2093,10 +2093,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2115,10 +2115,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -2128,7 +2128,7 @@
       <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -2137,22 +2137,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2172,7 +2172,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2189,7 +2189,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -2219,7 +2219,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2251,7 +2251,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -2297,12 +2297,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G8:H8"/>
@@ -2318,6 +2312,12 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
